--- a/natmiOut/OldD4/LR-pairs_lrc2p/L1cam-Egfr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/L1cam-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.89565561924442</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="H2">
-        <v>7.89565561924442</v>
+        <v>25.402264</v>
       </c>
       <c r="I2">
-        <v>0.2740832302426847</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="J2">
-        <v>0.2740832302426847</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.897941217831048</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N2">
-        <v>0.897941217831048</v>
+        <v>3.633172</v>
       </c>
       <c r="O2">
-        <v>0.01181103953983894</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P2">
-        <v>0.01181103953983894</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q2">
-        <v>7.089834622318891</v>
+        <v>10.25453270015645</v>
       </c>
       <c r="R2">
-        <v>7.089834622318891</v>
+        <v>92.29079430140801</v>
       </c>
       <c r="S2">
-        <v>0.003237207869603128</v>
+        <v>0.004029339080572846</v>
       </c>
       <c r="T2">
-        <v>0.003237207869603128</v>
+        <v>0.004999532721102424</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.89565561924442</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="H3">
-        <v>7.89565561924442</v>
+        <v>25.402264</v>
       </c>
       <c r="I3">
-        <v>0.2740832302426847</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="J3">
-        <v>0.2740832302426847</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>56.7871225945224</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N3">
-        <v>56.7871225945224</v>
+        <v>183.180478</v>
       </c>
       <c r="O3">
-        <v>0.7469475027972082</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P3">
-        <v>0.7469475027972082</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q3">
-        <v>448.3715636141625</v>
+        <v>517.0220957557991</v>
       </c>
       <c r="R3">
-        <v>448.3715636141625</v>
+        <v>4653.198861802192</v>
       </c>
       <c r="S3">
-        <v>0.2047257843883656</v>
+        <v>0.2031547801214516</v>
       </c>
       <c r="T3">
-        <v>0.2047257843883656</v>
+        <v>0.2520708608423116</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.89565561924442</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="H4">
-        <v>7.89565561924442</v>
+        <v>25.402264</v>
       </c>
       <c r="I4">
-        <v>0.2740832302426847</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="J4">
-        <v>0.2740832302426847</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.421752113583795</v>
+        <v>0.132278</v>
       </c>
       <c r="N4">
-        <v>0.421752113583795</v>
+        <v>0.396834</v>
       </c>
       <c r="O4">
-        <v>0.005547502209087931</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P4">
-        <v>0.005547502209087931</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q4">
-        <v>3.330009445546102</v>
+        <v>1.120053559130667</v>
       </c>
       <c r="R4">
-        <v>3.330009445546102</v>
+        <v>10.080482032176</v>
       </c>
       <c r="S4">
-        <v>0.001520477325245249</v>
+        <v>0.0004401054353331042</v>
       </c>
       <c r="T4">
-        <v>0.001520477325245249</v>
+        <v>0.0005460750462257112</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.89565561924442</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="H5">
-        <v>7.89565561924442</v>
+        <v>25.402264</v>
       </c>
       <c r="I5">
-        <v>0.2740832302426847</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="J5">
-        <v>0.2740832302426847</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.918771390257</v>
+        <v>0.655122</v>
       </c>
       <c r="N5">
-        <v>17.918771390257</v>
+        <v>1.965366</v>
       </c>
       <c r="O5">
-        <v>0.2356939554538648</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P5">
-        <v>0.2356939554538648</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q5">
-        <v>141.4804480174388</v>
+        <v>5.547193998736001</v>
       </c>
       <c r="R5">
-        <v>141.4804480174388</v>
+        <v>49.924745988624</v>
       </c>
       <c r="S5">
-        <v>0.06459976065947072</v>
+        <v>0.002179672757422201</v>
       </c>
       <c r="T5">
-        <v>0.06459976065947072</v>
+        <v>0.002704499436289333</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.307202658978419</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="H6">
-        <v>0.307202658978419</v>
+        <v>25.402264</v>
       </c>
       <c r="I6">
-        <v>0.01066397791042518</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="J6">
-        <v>0.01066397791042518</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.897941217831048</v>
+        <v>19.068426</v>
       </c>
       <c r="N6">
-        <v>0.897941217831048</v>
+        <v>38.136852</v>
       </c>
       <c r="O6">
-        <v>0.01181103953983894</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P6">
-        <v>0.01181103953983894</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q6">
-        <v>0.2758499297240177</v>
+        <v>161.460397105488</v>
       </c>
       <c r="R6">
-        <v>0.2758499297240177</v>
+        <v>968.7623826329281</v>
       </c>
       <c r="S6">
-        <v>0.0001259526647520008</v>
+        <v>0.06344303607438184</v>
       </c>
       <c r="T6">
-        <v>0.0001259526647520008</v>
+        <v>0.05247933195946694</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.307202658978419</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H7">
-        <v>0.307202658978419</v>
+        <v>1.003042</v>
       </c>
       <c r="I7">
-        <v>0.01066397791042518</v>
+        <v>0.01078951666043526</v>
       </c>
       <c r="J7">
-        <v>0.01066397791042518</v>
+        <v>0.01235133366529898</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>56.7871225945224</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N7">
-        <v>56.7871225945224</v>
+        <v>3.633172</v>
       </c>
       <c r="O7">
-        <v>0.7469475027972082</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P7">
-        <v>0.7469475027972082</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q7">
-        <v>17.44515505677074</v>
+        <v>0.4049137899137778</v>
       </c>
       <c r="R7">
-        <v>17.44515505677074</v>
+        <v>3.644224109224</v>
       </c>
       <c r="S7">
-        <v>0.007965431670076682</v>
+        <v>0.000159103784216082</v>
       </c>
       <c r="T7">
-        <v>0.007965431670076682</v>
+        <v>0.0001974131636313998</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.307202658978419</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H8">
-        <v>0.307202658978419</v>
+        <v>1.003042</v>
       </c>
       <c r="I8">
-        <v>0.01066397791042518</v>
+        <v>0.01078951666043526</v>
       </c>
       <c r="J8">
-        <v>0.01066397791042518</v>
+        <v>0.01235133366529898</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.421752113583795</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N8">
-        <v>0.421752113583795</v>
+        <v>183.180478</v>
       </c>
       <c r="O8">
-        <v>0.005547502209087931</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P8">
-        <v>0.005547502209087931</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q8">
-        <v>0.12956337072271</v>
+        <v>20.41530144600844</v>
       </c>
       <c r="R8">
-        <v>0.12956337072271</v>
+        <v>183.737713014076</v>
       </c>
       <c r="S8">
-        <v>5.91584410157486E-05</v>
+        <v>0.008021835256990519</v>
       </c>
       <c r="T8">
-        <v>5.91584410157486E-05</v>
+        <v>0.009953351417849757</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.307202658978419</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H9">
-        <v>0.307202658978419</v>
+        <v>1.003042</v>
       </c>
       <c r="I9">
-        <v>0.01066397791042518</v>
+        <v>0.01078951666043526</v>
       </c>
       <c r="J9">
-        <v>0.01066397791042518</v>
+        <v>0.01235133366529898</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>17.918771390257</v>
+        <v>0.132278</v>
       </c>
       <c r="N9">
-        <v>17.918771390257</v>
+        <v>0.396834</v>
       </c>
       <c r="O9">
-        <v>0.2356939554538648</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P9">
-        <v>0.2356939554538648</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q9">
-        <v>5.504694216713371</v>
+        <v>0.04422679655866667</v>
       </c>
       <c r="R9">
-        <v>5.504694216713371</v>
+        <v>0.398041169028</v>
       </c>
       <c r="S9">
-        <v>0.002513435134580752</v>
+        <v>1.737814535221693E-05</v>
       </c>
       <c r="T9">
-        <v>0.002513435134580752</v>
+        <v>2.156249563095359E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.71494890149125</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H10">
-        <v>3.71494890149125</v>
+        <v>1.003042</v>
       </c>
       <c r="I10">
-        <v>0.1289576501570711</v>
+        <v>0.01078951666043526</v>
       </c>
       <c r="J10">
-        <v>0.1289576501570711</v>
+        <v>0.01235133366529898</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.897941217831048</v>
+        <v>0.655122</v>
       </c>
       <c r="N10">
-        <v>0.897941217831048</v>
+        <v>1.965366</v>
       </c>
       <c r="O10">
-        <v>0.01181103953983894</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P10">
-        <v>0.01181103953983894</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q10">
-        <v>3.335805740785167</v>
+        <v>0.219038293708</v>
       </c>
       <c r="R10">
-        <v>3.335805740785167</v>
+        <v>1.971344643372</v>
       </c>
       <c r="S10">
-        <v>0.001523123904969884</v>
+        <v>8.60672624278796E-05</v>
       </c>
       <c r="T10">
-        <v>0.001523123904969884</v>
+        <v>0.000106790738163123</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.71494890149125</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H11">
-        <v>3.71494890149125</v>
+        <v>1.003042</v>
       </c>
       <c r="I11">
-        <v>0.1289576501570711</v>
+        <v>0.01078951666043526</v>
       </c>
       <c r="J11">
-        <v>0.1289576501570711</v>
+        <v>0.01235133366529898</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>56.7871225945224</v>
+        <v>19.068426</v>
       </c>
       <c r="N11">
-        <v>56.7871225945224</v>
+        <v>38.136852</v>
       </c>
       <c r="O11">
-        <v>0.7469475027972082</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P11">
-        <v>0.7469475027972082</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q11">
-        <v>210.9612587013699</v>
+        <v>6.375477383963999</v>
       </c>
       <c r="R11">
-        <v>210.9612587013699</v>
+        <v>38.25286430378399</v>
       </c>
       <c r="S11">
-        <v>0.0963245947514203</v>
+        <v>0.002505132211448559</v>
       </c>
       <c r="T11">
-        <v>0.0963245947514203</v>
+        <v>0.002072215850023747</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.71494890149125</v>
+        <v>4.140032333333333</v>
       </c>
       <c r="H12">
-        <v>3.71494890149125</v>
+        <v>12.420097</v>
       </c>
       <c r="I12">
-        <v>0.1289576501570711</v>
+        <v>0.1336004309946363</v>
       </c>
       <c r="J12">
-        <v>0.1289576501570711</v>
+        <v>0.1529395201819853</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.421752113583795</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N12">
-        <v>0.421752113583795</v>
+        <v>3.633172</v>
       </c>
       <c r="O12">
-        <v>0.005547502209087931</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P12">
-        <v>0.005547502209087931</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q12">
-        <v>1.566787551059732</v>
+        <v>5.013816517520445</v>
       </c>
       <c r="R12">
-        <v>1.566787551059732</v>
+        <v>45.124348657684</v>
       </c>
       <c r="S12">
-        <v>0.0007153928491251408</v>
+        <v>0.00197009141494654</v>
       </c>
       <c r="T12">
-        <v>0.0007153928491251408</v>
+        <v>0.002444454610453858</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.71494890149125</v>
+        <v>4.140032333333333</v>
       </c>
       <c r="H13">
-        <v>3.71494890149125</v>
+        <v>12.420097</v>
       </c>
       <c r="I13">
-        <v>0.1289576501570711</v>
+        <v>0.1336004309946363</v>
       </c>
       <c r="J13">
-        <v>0.1289576501570711</v>
+        <v>0.1529395201819853</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.918771390257</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N13">
-        <v>17.918771390257</v>
+        <v>183.180478</v>
       </c>
       <c r="O13">
-        <v>0.2356939554538648</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P13">
-        <v>0.2356939554538648</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q13">
-        <v>66.56732009230808</v>
+        <v>252.7910339184851</v>
       </c>
       <c r="R13">
-        <v>66.56732009230808</v>
+        <v>2275.119305266366</v>
       </c>
       <c r="S13">
-        <v>0.03039453865155581</v>
+        <v>0.09932981072561484</v>
       </c>
       <c r="T13">
-        <v>0.03039453865155581</v>
+        <v>0.1232466737033758</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.02548140520171</v>
+        <v>4.140032333333333</v>
       </c>
       <c r="H14">
-        <v>6.02548140520171</v>
+        <v>12.420097</v>
       </c>
       <c r="I14">
-        <v>0.2091635561307517</v>
+        <v>0.1336004309946363</v>
       </c>
       <c r="J14">
-        <v>0.2091635561307517</v>
+        <v>0.1529395201819853</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.897941217831048</v>
+        <v>0.132278</v>
       </c>
       <c r="N14">
-        <v>0.897941217831048</v>
+        <v>0.396834</v>
       </c>
       <c r="O14">
-        <v>0.01181103953983894</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P14">
-        <v>0.01181103953983894</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q14">
-        <v>5.410528111005157</v>
+        <v>0.5476351969886667</v>
       </c>
       <c r="R14">
-        <v>5.410528111005157</v>
+        <v>4.928716772898</v>
       </c>
       <c r="S14">
-        <v>0.00247043903175363</v>
+        <v>0.0002151836622540566</v>
       </c>
       <c r="T14">
-        <v>0.00247043903175363</v>
+        <v>0.0002669960852073191</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.02548140520171</v>
+        <v>4.140032333333333</v>
       </c>
       <c r="H15">
-        <v>6.02548140520171</v>
+        <v>12.420097</v>
       </c>
       <c r="I15">
-        <v>0.2091635561307517</v>
+        <v>0.1336004309946363</v>
       </c>
       <c r="J15">
-        <v>0.2091635561307517</v>
+        <v>0.1529395201819853</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>56.7871225945224</v>
+        <v>0.655122</v>
       </c>
       <c r="N15">
-        <v>56.7871225945224</v>
+        <v>1.965366</v>
       </c>
       <c r="O15">
-        <v>0.7469475027972082</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P15">
-        <v>0.7469475027972082</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q15">
-        <v>342.1697512482046</v>
+        <v>2.712226262278</v>
       </c>
       <c r="R15">
-        <v>342.1697512482046</v>
+        <v>24.410036360502</v>
       </c>
       <c r="S15">
-        <v>0.1562341959280487</v>
+        <v>0.001065721822095904</v>
       </c>
       <c r="T15">
-        <v>0.1562341959280487</v>
+        <v>0.001322328802470474</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.02548140520171</v>
+        <v>4.140032333333333</v>
       </c>
       <c r="H16">
-        <v>6.02548140520171</v>
+        <v>12.420097</v>
       </c>
       <c r="I16">
-        <v>0.2091635561307517</v>
+        <v>0.1336004309946363</v>
       </c>
       <c r="J16">
-        <v>0.2091635561307517</v>
+        <v>0.1529395201819853</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.421752113583795</v>
+        <v>19.068426</v>
       </c>
       <c r="N16">
-        <v>0.421752113583795</v>
+        <v>38.136852</v>
       </c>
       <c r="O16">
-        <v>0.005547502209087931</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P16">
-        <v>0.005547502209087931</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q16">
-        <v>2.541259518003676</v>
+        <v>78.94390018577398</v>
       </c>
       <c r="R16">
-        <v>2.541259518003676</v>
+        <v>473.663401114644</v>
       </c>
       <c r="S16">
-        <v>0.001160335289696033</v>
+        <v>0.0310196233697249</v>
       </c>
       <c r="T16">
-        <v>0.001160335289696033</v>
+        <v>0.02565906698047778</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.02548140520171</v>
+        <v>6.291073</v>
       </c>
       <c r="H17">
-        <v>6.02548140520171</v>
+        <v>18.873219</v>
       </c>
       <c r="I17">
-        <v>0.2091635561307517</v>
+        <v>0.2030153381778063</v>
       </c>
       <c r="J17">
-        <v>0.2091635561307517</v>
+        <v>0.2324024569332694</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.918771390257</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N17">
-        <v>17.918771390257</v>
+        <v>3.633172</v>
       </c>
       <c r="O17">
-        <v>0.2356939554538648</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P17">
-        <v>0.2356939554538648</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q17">
-        <v>107.9692238160539</v>
+        <v>7.618850091185334</v>
       </c>
       <c r="R17">
-        <v>107.9692238160539</v>
+        <v>68.569650820668</v>
       </c>
       <c r="S17">
-        <v>0.04929858588125336</v>
+        <v>0.002993693746860908</v>
       </c>
       <c r="T17">
-        <v>0.04929858588125336</v>
+        <v>0.00371452229388026</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>10.8642222294207</v>
+        <v>6.291073</v>
       </c>
       <c r="H18">
-        <v>10.8642222294207</v>
+        <v>18.873219</v>
       </c>
       <c r="I18">
-        <v>0.3771315855590672</v>
+        <v>0.2030153381778063</v>
       </c>
       <c r="J18">
-        <v>0.3771315855590672</v>
+        <v>0.2324024569332694</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.897941217831048</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N18">
-        <v>0.897941217831048</v>
+        <v>183.180478</v>
       </c>
       <c r="O18">
-        <v>0.01181103953983894</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P18">
-        <v>0.01181103953983894</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q18">
-        <v>9.755432939473165</v>
+        <v>384.1339197576313</v>
       </c>
       <c r="R18">
-        <v>9.755432939473165</v>
+        <v>3457.205277818682</v>
       </c>
       <c r="S18">
-        <v>0.004454316068760294</v>
+        <v>0.1509386980675817</v>
       </c>
       <c r="T18">
-        <v>0.004454316068760294</v>
+        <v>0.1872820690390223</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>10.8642222294207</v>
+        <v>6.291073</v>
       </c>
       <c r="H19">
-        <v>10.8642222294207</v>
+        <v>18.873219</v>
       </c>
       <c r="I19">
-        <v>0.3771315855590672</v>
+        <v>0.2030153381778063</v>
       </c>
       <c r="J19">
-        <v>0.3771315855590672</v>
+        <v>0.2324024569332694</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>56.7871225945224</v>
+        <v>0.132278</v>
       </c>
       <c r="N19">
-        <v>56.7871225945224</v>
+        <v>0.396834</v>
       </c>
       <c r="O19">
-        <v>0.7469475027972082</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P19">
-        <v>0.7469475027972082</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q19">
-        <v>616.9479196362487</v>
+        <v>0.832170554294</v>
       </c>
       <c r="R19">
-        <v>616.9479196362487</v>
+        <v>7.489534988646</v>
       </c>
       <c r="S19">
-        <v>0.2816974960592969</v>
+        <v>0.0003269868490514078</v>
       </c>
       <c r="T19">
-        <v>0.2816974960592969</v>
+        <v>0.0004057195034998837</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.8642222294207</v>
+        <v>6.291073</v>
       </c>
       <c r="H20">
-        <v>10.8642222294207</v>
+        <v>18.873219</v>
       </c>
       <c r="I20">
-        <v>0.3771315855590672</v>
+        <v>0.2030153381778063</v>
       </c>
       <c r="J20">
-        <v>0.3771315855590672</v>
+        <v>0.2324024569332694</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.421752113583795</v>
+        <v>0.655122</v>
       </c>
       <c r="N20">
-        <v>0.421752113583795</v>
+        <v>1.965366</v>
       </c>
       <c r="O20">
-        <v>0.005547502209087931</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P20">
-        <v>0.005547502209087931</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q20">
-        <v>4.582008687702229</v>
+        <v>4.121420325906</v>
       </c>
       <c r="R20">
-        <v>4.582008687702229</v>
+        <v>37.092782933154</v>
       </c>
       <c r="S20">
-        <v>0.00209213830400576</v>
+        <v>0.001619439956185128</v>
       </c>
       <c r="T20">
-        <v>0.00209213830400576</v>
+        <v>0.002009372477447881</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.8642222294207</v>
+        <v>6.291073</v>
       </c>
       <c r="H21">
-        <v>10.8642222294207</v>
+        <v>18.873219</v>
       </c>
       <c r="I21">
-        <v>0.3771315855590672</v>
+        <v>0.2030153381778063</v>
       </c>
       <c r="J21">
-        <v>0.3771315855590672</v>
+        <v>0.2324024569332694</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.918771390257</v>
+        <v>19.068426</v>
       </c>
       <c r="N21">
-        <v>17.918771390257</v>
+        <v>38.136852</v>
       </c>
       <c r="O21">
-        <v>0.2356939554538648</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P21">
-        <v>0.2356939554538648</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q21">
-        <v>194.6735144619377</v>
+        <v>119.960859961098</v>
       </c>
       <c r="R21">
-        <v>194.6735144619377</v>
+        <v>719.7651597665879</v>
       </c>
       <c r="S21">
-        <v>0.08888763512700421</v>
+        <v>0.04713651955812712</v>
       </c>
       <c r="T21">
-        <v>0.08888763512700421</v>
+        <v>0.03899077361941906</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>11.755292</v>
+      </c>
+      <c r="H22">
+        <v>23.510584</v>
+      </c>
+      <c r="I22">
+        <v>0.3793477806979606</v>
+      </c>
+      <c r="J22">
+        <v>0.2895063892140504</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.211057333333333</v>
+      </c>
+      <c r="N22">
+        <v>3.633172</v>
+      </c>
+      <c r="O22">
+        <v>0.0147461456544675</v>
+      </c>
+      <c r="P22">
+        <v>0.01598314554371009</v>
+      </c>
+      <c r="Q22">
+        <v>14.23633258207467</v>
+      </c>
+      <c r="R22">
+        <v>85.417995492448</v>
+      </c>
+      <c r="S22">
+        <v>0.005593917627871121</v>
+      </c>
+      <c r="T22">
+        <v>0.004627222754642149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>11.755292</v>
+      </c>
+      <c r="H23">
+        <v>23.510584</v>
+      </c>
+      <c r="I23">
+        <v>0.3793477806979606</v>
+      </c>
+      <c r="J23">
+        <v>0.2895063892140504</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>61.06015933333333</v>
+      </c>
+      <c r="N23">
+        <v>183.180478</v>
+      </c>
+      <c r="O23">
+        <v>0.7434842087418319</v>
+      </c>
+      <c r="P23">
+        <v>0.8058523627949308</v>
+      </c>
+      <c r="Q23">
+        <v>717.7800025298586</v>
+      </c>
+      <c r="R23">
+        <v>4306.680015179151</v>
+      </c>
+      <c r="S23">
+        <v>0.2820390845701932</v>
+      </c>
+      <c r="T23">
+        <v>0.2332994077923714</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>11.755292</v>
+      </c>
+      <c r="H24">
+        <v>23.510584</v>
+      </c>
+      <c r="I24">
+        <v>0.3793477806979606</v>
+      </c>
+      <c r="J24">
+        <v>0.2895063892140504</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.132278</v>
+      </c>
+      <c r="N24">
+        <v>0.396834</v>
+      </c>
+      <c r="O24">
+        <v>0.001610650958623747</v>
+      </c>
+      <c r="P24">
+        <v>0.001745762539921768</v>
+      </c>
+      <c r="Q24">
+        <v>1.554966515176</v>
+      </c>
+      <c r="R24">
+        <v>9.329799091056</v>
+      </c>
+      <c r="S24">
+        <v>0.000610996866632961</v>
+      </c>
+      <c r="T24">
+        <v>0.0005054094093579006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>11.755292</v>
+      </c>
+      <c r="H25">
+        <v>23.510584</v>
+      </c>
+      <c r="I25">
+        <v>0.3793477806979606</v>
+      </c>
+      <c r="J25">
+        <v>0.2895063892140504</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.655122</v>
+      </c>
+      <c r="N25">
+        <v>1.965366</v>
+      </c>
+      <c r="O25">
+        <v>0.007976934012575832</v>
+      </c>
+      <c r="P25">
+        <v>0.008646089649666828</v>
+      </c>
+      <c r="Q25">
+        <v>7.701150405623999</v>
+      </c>
+      <c r="R25">
+        <v>46.20690243374399</v>
+      </c>
+      <c r="S25">
+        <v>0.00302603221444472</v>
+      </c>
+      <c r="T25">
+        <v>0.002503098195296018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>11.755292</v>
+      </c>
+      <c r="H26">
+        <v>23.510584</v>
+      </c>
+      <c r="I26">
+        <v>0.3793477806979606</v>
+      </c>
+      <c r="J26">
+        <v>0.2895063892140504</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>19.068426</v>
+      </c>
+      <c r="N26">
+        <v>38.136852</v>
+      </c>
+      <c r="O26">
+        <v>0.232182060632501</v>
+      </c>
+      <c r="P26">
+        <v>0.1677726394717705</v>
+      </c>
+      <c r="Q26">
+        <v>224.154915610392</v>
+      </c>
+      <c r="R26">
+        <v>896.6196624415678</v>
+      </c>
+      <c r="S26">
+        <v>0.08807774941881859</v>
+      </c>
+      <c r="T26">
+        <v>0.04857125106238293</v>
       </c>
     </row>
   </sheetData>
